--- a/Task 2/config_comparison.xlsx
+++ b/Task 2/config_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielchan/Dropbox/Udacity_AWS_Architect/Project_2/chandc-AWS_Architect_Performance_Scalability/Task 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033FBFF2-F011-474E-86BF-B5AC2E2763A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067144B3-9C59-D747-AED6-C87CDB5EA3A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35760" yWindow="3360" windowWidth="30520" windowHeight="22420" activeTab="1" xr2:uid="{B465EAAF-C6D6-634C-8261-6802ECB4F83E}"/>
   </bookViews>
@@ -175,13 +175,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -221,8 +227,24 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,243 +560,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF117D21-180C-894F-BC73-F2D7702EF875}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="10">
         <v>3087.3599999999901</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="9">
         <v>1902.62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="10">
         <v>1850.62</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="9">
         <v>1732.86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="10">
         <v>1781.6</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="9">
         <v>1425.28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10">
         <v>505</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D6" s="10">
         <v>500.05</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9">
+        <v>500.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10">
+        <v>355.06</v>
+      </c>
+      <c r="E7" s="9">
+        <v>178.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1">
-        <v>500.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2">
-        <v>355.06</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1">
-        <v>178.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="D8" s="10">
         <v>237.98</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9">
+        <v>237.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1">
-        <v>237.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D12">
-    <sortCondition descending="1" ref="D2:D12"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -784,7 +772,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,244 +783,244 @@
     <col min="4" max="5" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="10">
         <v>3087.3599999999901</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="10">
         <v>5939.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="10">
         <v>1781.6</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="10">
         <v>3548.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
         <v>3087.3599999999901</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="10">
         <v>1850.62</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="10">
         <v>1850.62</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
         <v>1433.28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="10">
         <v>355.06</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="10">
         <v>630.71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
         <v>630.71</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="10">
         <v>505</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="10">
         <f>D9*2</f>
         <v>1010</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="10">
         <v>500.05</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="10">
         <f>D10*2</f>
         <v>1000.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="10">
         <v>237.98</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="10">
         <f>D11*2</f>
         <v>475.96</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
         <v>0</v>
       </c>
     </row>
